--- a/downloads/unlinked_ratio.xlsx
+++ b/downloads/unlinked_ratio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="523">
   <si>
     <t>clinique_sku</t>
   </si>
@@ -37,1534 +37,1552 @@
     <t>clinique_url</t>
   </si>
   <si>
+    <t>K77L01</t>
+  </si>
+  <si>
+    <t>67F901</t>
+  </si>
+  <si>
+    <t>65EN01</t>
+  </si>
+  <si>
+    <t>ZMAT01</t>
+  </si>
+  <si>
+    <t>ZP4R01</t>
+  </si>
+  <si>
+    <t>K6K701</t>
+  </si>
+  <si>
+    <t>VCFW80</t>
+  </si>
+  <si>
+    <t>V90T01</t>
+  </si>
+  <si>
+    <t>VC7G01</t>
+  </si>
+  <si>
+    <t>6FP203</t>
+  </si>
+  <si>
+    <t>KXJA32</t>
+  </si>
+  <si>
+    <t>ZXR401</t>
+  </si>
+  <si>
+    <t>V90R01</t>
+  </si>
+  <si>
+    <t>VCFA01</t>
+  </si>
+  <si>
+    <t>V90M01</t>
+  </si>
+  <si>
+    <t>65EM01</t>
+  </si>
+  <si>
+    <t>Z8K901</t>
+  </si>
+  <si>
     <t>ZF7E01</t>
   </si>
   <si>
+    <t>Z47M02</t>
+  </si>
+  <si>
+    <t>VA46Y3</t>
+  </si>
+  <si>
+    <t>651705</t>
+  </si>
+  <si>
+    <t>62YL01</t>
+  </si>
+  <si>
+    <t>V12H01</t>
+  </si>
+  <si>
     <t>Z21901</t>
   </si>
   <si>
+    <t>Z9F201</t>
+  </si>
+  <si>
+    <t>Z4RN01</t>
+  </si>
+  <si>
+    <t>V2YF01</t>
+  </si>
+  <si>
+    <t>K78501</t>
+  </si>
+  <si>
+    <t>KNCH01</t>
+  </si>
+  <si>
+    <t>618J02</t>
+  </si>
+  <si>
+    <t>VCFP01</t>
+  </si>
+  <si>
+    <t>KNCG01</t>
+  </si>
+  <si>
+    <t>V93A41</t>
+  </si>
+  <si>
+    <t>6FLK08</t>
+  </si>
+  <si>
+    <t>ZA1N01</t>
+  </si>
+  <si>
+    <t>633917</t>
+  </si>
+  <si>
+    <t>VCWL01</t>
+  </si>
+  <si>
+    <t>7KXC01</t>
+  </si>
+  <si>
+    <t>647J07</t>
+  </si>
+  <si>
+    <t>VEH801</t>
+  </si>
+  <si>
+    <t>749K28</t>
+  </si>
+  <si>
+    <t>KGN401</t>
+  </si>
+  <si>
+    <t>V7HJ20</t>
+  </si>
+  <si>
+    <t>ZJ4P01</t>
+  </si>
+  <si>
+    <t>K8GN01</t>
+  </si>
+  <si>
+    <t>VCGA80</t>
+  </si>
+  <si>
+    <t>64MG01</t>
+  </si>
+  <si>
+    <t>KNCE01</t>
+  </si>
+  <si>
+    <t>K73301</t>
+  </si>
+  <si>
+    <t>V6W801</t>
+  </si>
+  <si>
+    <t>VA3JY3</t>
+  </si>
+  <si>
+    <t>K0CG01</t>
+  </si>
+  <si>
+    <t>K8GM01</t>
+  </si>
+  <si>
+    <t>VCFJ01</t>
+  </si>
+  <si>
+    <t>ZKNM01</t>
+  </si>
+  <si>
+    <t>VCGJ01</t>
+  </si>
+  <si>
+    <t>V3KX01</t>
+  </si>
+  <si>
+    <t>6LJ401</t>
+  </si>
+  <si>
+    <t>V16J01</t>
+  </si>
+  <si>
+    <t>V7HH01</t>
+  </si>
+  <si>
+    <t>K8GP01</t>
+  </si>
+  <si>
+    <t>661002</t>
+  </si>
+  <si>
+    <t>KTAY01</t>
+  </si>
+  <si>
+    <t>V20S04</t>
+  </si>
+  <si>
+    <t>Z79J01</t>
+  </si>
+  <si>
+    <t>70JW01</t>
+  </si>
+  <si>
+    <t>V9E501</t>
+  </si>
+  <si>
+    <t>ZCP701</t>
+  </si>
+  <si>
+    <t>6F4G01</t>
+  </si>
+  <si>
+    <t>ZGH501</t>
+  </si>
+  <si>
+    <t>VCFH01</t>
+  </si>
+  <si>
+    <t>660601</t>
+  </si>
+  <si>
+    <t>61MT01</t>
+  </si>
+  <si>
+    <t>VCWH20</t>
+  </si>
+  <si>
+    <t>6F4501</t>
+  </si>
+  <si>
     <t>Z4KH01</t>
   </si>
   <si>
-    <t>V90R01</t>
-  </si>
-  <si>
-    <t>62YL01</t>
-  </si>
-  <si>
-    <t>65EN01</t>
-  </si>
-  <si>
-    <t>K0CG01</t>
-  </si>
-  <si>
     <t>67FE01</t>
   </si>
   <si>
-    <t>V90T01</t>
-  </si>
-  <si>
-    <t>K6K701</t>
-  </si>
-  <si>
-    <t>Z4RN01</t>
-  </si>
-  <si>
-    <t>651705</t>
-  </si>
-  <si>
-    <t>VC7G01</t>
-  </si>
-  <si>
-    <t>VCFJ01</t>
-  </si>
-  <si>
-    <t>K77L01</t>
-  </si>
-  <si>
-    <t>VCFH01</t>
-  </si>
-  <si>
-    <t>V2YF01</t>
-  </si>
-  <si>
-    <t>V12H01</t>
-  </si>
-  <si>
-    <t>K8GN01</t>
-  </si>
-  <si>
-    <t>ZJ4P01</t>
-  </si>
-  <si>
-    <t>67F901</t>
-  </si>
-  <si>
-    <t>V90M01</t>
-  </si>
-  <si>
-    <t>V3KX01</t>
-  </si>
-  <si>
-    <t>KNCE01</t>
-  </si>
-  <si>
-    <t>ZXR401</t>
-  </si>
-  <si>
-    <t>K8GP01</t>
-  </si>
-  <si>
-    <t>KNCG01</t>
+    <t>V4N204</t>
+  </si>
+  <si>
+    <t>V33D01</t>
+  </si>
+  <si>
+    <t>6F4901</t>
+  </si>
+  <si>
+    <t>6F4801</t>
+  </si>
+  <si>
+    <t>6F4601</t>
+  </si>
+  <si>
+    <t>634607</t>
+  </si>
+  <si>
+    <t>634C01</t>
+  </si>
+  <si>
+    <t>6G8A01</t>
+  </si>
+  <si>
+    <t>6F4A01</t>
+  </si>
+  <si>
+    <t>K6EE03</t>
   </si>
   <si>
     <t>K2K801</t>
   </si>
   <si>
-    <t>64MG01</t>
-  </si>
-  <si>
-    <t>65EM01</t>
-  </si>
-  <si>
-    <t>K8GM01</t>
-  </si>
-  <si>
-    <t>61MT01</t>
-  </si>
-  <si>
-    <t>Z8K901</t>
-  </si>
-  <si>
-    <t>KNCH01</t>
-  </si>
-  <si>
-    <t>661002</t>
-  </si>
-  <si>
-    <t>6LJ401</t>
+    <t>V6W001</t>
+  </si>
+  <si>
+    <t>6F4701</t>
+  </si>
+  <si>
+    <t>V6H101</t>
+  </si>
+  <si>
+    <t>603402</t>
+  </si>
+  <si>
+    <t>KL6901</t>
+  </si>
+  <si>
+    <t>V12K01</t>
+  </si>
+  <si>
+    <t>KT9L01</t>
+  </si>
+  <si>
+    <t>ZKTK01</t>
+  </si>
+  <si>
+    <t>6W3T01</t>
+  </si>
+  <si>
+    <t>6NH701</t>
+  </si>
+  <si>
+    <t>V1L601</t>
+  </si>
+  <si>
+    <t>KJR301</t>
+  </si>
+  <si>
+    <t>ZWJF01</t>
+  </si>
+  <si>
+    <t>6L6W01</t>
+  </si>
+  <si>
+    <t>Z63R01</t>
+  </si>
+  <si>
+    <t>V5P701</t>
+  </si>
+  <si>
+    <t>KWY701</t>
+  </si>
+  <si>
+    <t>Z5CM01</t>
+  </si>
+  <si>
+    <t>7JJ001</t>
+  </si>
+  <si>
+    <t>KHWR01</t>
+  </si>
+  <si>
+    <t>6NHF01</t>
   </si>
   <si>
     <t>ZJYR01</t>
   </si>
   <si>
-    <t>V4N204</t>
-  </si>
-  <si>
-    <t>VCFW80</t>
-  </si>
-  <si>
-    <t>70JW01</t>
-  </si>
-  <si>
-    <t>634607</t>
-  </si>
-  <si>
-    <t>Z79J01</t>
-  </si>
-  <si>
-    <t>660601</t>
-  </si>
-  <si>
-    <t>Z9F201</t>
-  </si>
-  <si>
-    <t>V20S04</t>
-  </si>
-  <si>
-    <t>VCWL01</t>
-  </si>
-  <si>
-    <t>V93A41</t>
-  </si>
-  <si>
-    <t>VCGA80</t>
-  </si>
-  <si>
-    <t>6W3T01</t>
-  </si>
-  <si>
-    <t>VA3JY3</t>
-  </si>
-  <si>
-    <t>VEH801</t>
-  </si>
-  <si>
     <t>V5P301</t>
   </si>
   <si>
+    <t>V36Z01</t>
+  </si>
+  <si>
+    <t>6MN401</t>
+  </si>
+  <si>
+    <t>614701</t>
+  </si>
+  <si>
+    <t>ZPYH01</t>
+  </si>
+  <si>
+    <t>V40K01</t>
+  </si>
+  <si>
     <t>V5P801</t>
   </si>
   <si>
-    <t>KWY701</t>
-  </si>
-  <si>
-    <t>603402</t>
-  </si>
-  <si>
-    <t>V6W001</t>
-  </si>
-  <si>
-    <t>V9E501</t>
-  </si>
-  <si>
-    <t>KTAY01</t>
-  </si>
-  <si>
-    <t>618J02</t>
-  </si>
-  <si>
-    <t>V7HH01</t>
-  </si>
-  <si>
-    <t>ZMAT01</t>
-  </si>
-  <si>
-    <t>Z47M02</t>
-  </si>
-  <si>
-    <t>Z63R01</t>
-  </si>
-  <si>
-    <t>633917</t>
-  </si>
-  <si>
-    <t>ZA1N01</t>
-  </si>
-  <si>
-    <t>647J07</t>
-  </si>
-  <si>
-    <t>ZCP701</t>
-  </si>
-  <si>
-    <t>KL6901</t>
-  </si>
-  <si>
-    <t>KT9L01</t>
-  </si>
-  <si>
-    <t>V16J01</t>
-  </si>
-  <si>
-    <t>7JJ001</t>
-  </si>
-  <si>
-    <t>V12K01</t>
-  </si>
-  <si>
-    <t>VCWH20</t>
-  </si>
-  <si>
-    <t>ZKNM01</t>
-  </si>
-  <si>
-    <t>K78501</t>
-  </si>
-  <si>
-    <t>614701</t>
-  </si>
-  <si>
-    <t>7KXC01</t>
-  </si>
-  <si>
-    <t>6NHF01</t>
-  </si>
-  <si>
-    <t>VCFA01</t>
-  </si>
-  <si>
-    <t>ZP4R01</t>
-  </si>
-  <si>
-    <t>ZGH501</t>
-  </si>
-  <si>
-    <t>6L6W01</t>
-  </si>
-  <si>
-    <t>6MN401</t>
-  </si>
-  <si>
-    <t>6F4A01</t>
-  </si>
-  <si>
-    <t>6F4501</t>
-  </si>
-  <si>
-    <t>6F4801</t>
-  </si>
-  <si>
-    <t>6G8A01</t>
-  </si>
-  <si>
-    <t>V7HJ20</t>
-  </si>
-  <si>
-    <t>KXJA32</t>
-  </si>
-  <si>
-    <t>V6W801</t>
-  </si>
-  <si>
-    <t>6FLK08</t>
-  </si>
-  <si>
-    <t>K73301</t>
-  </si>
-  <si>
-    <t>ZKTK01</t>
-  </si>
-  <si>
-    <t>6NH701</t>
-  </si>
-  <si>
-    <t>VA46Y3</t>
-  </si>
-  <si>
-    <t>KGN401</t>
-  </si>
-  <si>
-    <t>K6EE03</t>
-  </si>
-  <si>
-    <t>6F4601</t>
-  </si>
-  <si>
-    <t>634C01</t>
-  </si>
-  <si>
-    <t>6F4701</t>
-  </si>
-  <si>
-    <t>Z5CM01</t>
-  </si>
-  <si>
-    <t>V1L601</t>
-  </si>
-  <si>
-    <t>V5P701</t>
-  </si>
-  <si>
-    <t>KHWR01</t>
-  </si>
-  <si>
-    <t>V40K01</t>
-  </si>
-  <si>
-    <t>KJR301</t>
-  </si>
-  <si>
-    <t>ZPYH01</t>
-  </si>
-  <si>
-    <t>VCGJ01</t>
-  </si>
-  <si>
-    <t>6F4901</t>
-  </si>
-  <si>
-    <t>V6H101</t>
-  </si>
-  <si>
-    <t>ZWJF01</t>
-  </si>
-  <si>
-    <t>749K28</t>
-  </si>
-  <si>
-    <t>6FP203</t>
-  </si>
-  <si>
-    <t>6F4G01</t>
+    <t>1202464</t>
+  </si>
+  <si>
+    <t>1580802</t>
+  </si>
+  <si>
+    <t>1802321</t>
+  </si>
+  <si>
+    <t>711267</t>
+  </si>
+  <si>
+    <t>2111904</t>
+  </si>
+  <si>
+    <t>2716629</t>
+  </si>
+  <si>
+    <t>2421766</t>
+  </si>
+  <si>
+    <t>1860220</t>
+  </si>
+  <si>
+    <t>557413</t>
+  </si>
+  <si>
+    <t>2702744</t>
+  </si>
+  <si>
+    <t>50765</t>
   </si>
   <si>
     <t>1734649</t>
   </si>
   <si>
+    <t>1674910</t>
+  </si>
+  <si>
+    <t>1596220</t>
+  </si>
+  <si>
     <t>1580794</t>
   </si>
   <si>
-    <t>1202464</t>
-  </si>
-  <si>
-    <t>2421766</t>
-  </si>
-  <si>
-    <t>1580802</t>
+    <t>789727</t>
+  </si>
+  <si>
+    <t>1332246</t>
+  </si>
+  <si>
+    <t>847517</t>
+  </si>
+  <si>
+    <t>1677137</t>
+  </si>
+  <si>
+    <t>51573</t>
+  </si>
+  <si>
+    <t>1484641</t>
+  </si>
+  <si>
+    <t>2515245</t>
+  </si>
+  <si>
+    <t>1717016</t>
+  </si>
+  <si>
+    <t>70680</t>
+  </si>
+  <si>
+    <t>2664365</t>
+  </si>
+  <si>
+    <t>2313757</t>
   </si>
   <si>
     <t>2240349</t>
   </si>
   <si>
-    <t>2111904</t>
-  </si>
-  <si>
-    <t>1596220</t>
-  </si>
-  <si>
-    <t>1860220</t>
-  </si>
-  <si>
     <t>2734507</t>
   </si>
   <si>
+    <t>1151711</t>
+  </si>
+  <si>
+    <t>1440486</t>
+  </si>
+  <si>
+    <t>1438787</t>
+  </si>
+  <si>
+    <t>1066729</t>
+  </si>
+  <si>
+    <t>1027473</t>
+  </si>
+  <si>
+    <t>1066711</t>
+  </si>
+  <si>
+    <t>51052</t>
+  </si>
+  <si>
+    <t>2717015</t>
+  </si>
+  <si>
+    <t>2608503</t>
+  </si>
+  <si>
+    <t>1580810</t>
+  </si>
+  <si>
+    <t>741967</t>
+  </si>
+  <si>
+    <t>1295765</t>
+  </si>
+  <si>
+    <t>50997</t>
+  </si>
+  <si>
     <t>886267</t>
   </si>
   <si>
-    <t>70680</t>
-  </si>
-  <si>
-    <t>1440486</t>
-  </si>
-  <si>
-    <t>1151711</t>
+    <t>2672988</t>
+  </si>
+  <si>
+    <t>2240323</t>
+  </si>
+  <si>
+    <t>1027507</t>
+  </si>
+  <si>
+    <t>637025</t>
+  </si>
+  <si>
+    <t>882506</t>
+  </si>
+  <si>
+    <t>1898790</t>
+  </si>
+  <si>
+    <t>2171940</t>
+  </si>
+  <si>
+    <t>579490</t>
+  </si>
+  <si>
+    <t>2766384</t>
+  </si>
+  <si>
+    <t>2694875</t>
+  </si>
+  <si>
+    <t>1417302</t>
   </si>
   <si>
     <t>1809383</t>
   </si>
   <si>
-    <t>557413</t>
-  </si>
-  <si>
-    <t>2766384</t>
-  </si>
-  <si>
-    <t>1066729</t>
-  </si>
-  <si>
-    <t>1580810</t>
-  </si>
-  <si>
-    <t>1417302</t>
-  </si>
-  <si>
-    <t>51052</t>
-  </si>
-  <si>
-    <t>789727</t>
-  </si>
-  <si>
-    <t>2702744</t>
-  </si>
-  <si>
-    <t>1677137</t>
-  </si>
-  <si>
-    <t>637025</t>
-  </si>
-  <si>
-    <t>2515245</t>
-  </si>
-  <si>
-    <t>1295765</t>
-  </si>
-  <si>
-    <t>50997</t>
-  </si>
-  <si>
-    <t>1438787</t>
-  </si>
-  <si>
-    <t>847517</t>
-  </si>
-  <si>
-    <t>2664365</t>
-  </si>
-  <si>
-    <t>1802321</t>
-  </si>
-  <si>
-    <t>1592831</t>
-  </si>
-  <si>
-    <t>1484641</t>
-  </si>
-  <si>
-    <t>2166833</t>
-  </si>
-  <si>
-    <t>2240323</t>
-  </si>
-  <si>
-    <t>1487180</t>
-  </si>
-  <si>
-    <t>2672988</t>
-  </si>
-  <si>
-    <t>2717015</t>
-  </si>
-  <si>
-    <t>51573</t>
-  </si>
-  <si>
-    <t>2083871</t>
-  </si>
-  <si>
     <t>47860</t>
   </si>
   <si>
-    <t>882506</t>
-  </si>
-  <si>
-    <t>711267</t>
-  </si>
-  <si>
-    <t>579490</t>
-  </si>
-  <si>
-    <t>1066711</t>
-  </si>
-  <si>
-    <t>1674910</t>
-  </si>
-  <si>
-    <t>51532</t>
-  </si>
-  <si>
-    <t>1027507</t>
-  </si>
-  <si>
-    <t>741967</t>
-  </si>
-  <si>
-    <t>2694875</t>
-  </si>
-  <si>
-    <t>1898790</t>
-  </si>
-  <si>
-    <t>2313757</t>
-  </si>
-  <si>
-    <t>2171940</t>
-  </si>
-  <si>
-    <t>2608503</t>
-  </si>
-  <si>
-    <t>1717016</t>
+    <t>Clinique For Men Starter Kit – Daily Intense Hydration</t>
+  </si>
+  <si>
+    <t>Clinique For Men Face Scrub</t>
+  </si>
+  <si>
+    <t>Clinique For Men Oil Control Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
+  </si>
+  <si>
+    <t>High Impact Custom Black Kajal</t>
+  </si>
+  <si>
+    <t>Clinique For Men Super Energizer Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Summer Day Skincare and Makeup Essentials</t>
+  </si>
+  <si>
+    <t>Daily Age Repair Set: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Paradise Limited Edition Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Cream Shaper For Eyes</t>
+  </si>
+  <si>
+    <t>Superbalanced Makeup</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Bloom Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Good to Glow: All-in-One Face Palette</t>
+  </si>
+  <si>
+    <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique For Men Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique Happy Perfume Rollerball</t>
   </si>
   <si>
     <t>Clinique For Men Charcoal Face Wash</t>
   </si>
   <si>
+    <t>Chubby Stick Cheek Colour Balm</t>
+  </si>
+  <si>
+    <t>Easy Eye Duo Set</t>
+  </si>
+  <si>
+    <t>Clinique For Men Post-Shave Soother</t>
+  </si>
+  <si>
+    <t>Clinique Happy For Men Cologne Spray</t>
+  </si>
+  <si>
+    <t>Clinique For Men Starter Kit – Daily Age Repair</t>
+  </si>
+  <si>
     <t>Clinique For Men Moisturizing Lotion</t>
   </si>
   <si>
+    <t>Aromatics in White</t>
+  </si>
+  <si>
+    <t>Clinique For Men Aloe Shave Gel</t>
+  </si>
+  <si>
+    <t>Clinique For Men Starter Kit – Daily Oil Control</t>
+  </si>
+  <si>
+    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
+  </si>
+  <si>
+    <t>Clinique My Happy&lt;br&gt;Baby Bouquet</t>
+  </si>
+  <si>
+    <t>Soft-Pressed Powder Blusher</t>
+  </si>
+  <si>
+    <t>Happy for Him Fragrance Set</t>
+  </si>
+  <si>
+    <t>Clinique My Happy&lt;br&gt;Cookies &amp; Kisses</t>
+  </si>
+  <si>
+    <t>Acne Solutions Liquid Makeup</t>
+  </si>
+  <si>
+    <t>Blushing Blush Powder Blush</t>
+  </si>
+  <si>
+    <t>Chubby Stick Sculpting Highlight</t>
+  </si>
+  <si>
+    <t>Touch Base For Eyes</t>
+  </si>
+  <si>
+    <t>All About Shadow Quad</t>
+  </si>
+  <si>
+    <t>Stay-Matte Oil-Free Makeup</t>
+  </si>
+  <si>
+    <t>Superpowder Double Face Makeup</t>
+  </si>
+  <si>
+    <t>High Impact Gel Tech Eyeliner</t>
+  </si>
+  <si>
+    <t>Chubby Stick Moisturizing Lip Colour Balm</t>
+  </si>
+  <si>
+    <t>Bottom Lash Mascara</t>
+  </si>
+  <si>
+    <t>Quickliner For Lips</t>
+  </si>
+  <si>
+    <t>Aromatics in Black</t>
+  </si>
+  <si>
+    <t>Clinique My Happy&lt;br&gt;Lily of the Beach</t>
+  </si>
+  <si>
+    <t>Sunny Day Skincare and Makeup Staples</t>
+  </si>
+  <si>
+    <t>Clinique Happy Body Cream</t>
+  </si>
+  <si>
+    <t>Clinique My Happy&lt;br&gt;Indigo Mist</t>
+  </si>
+  <si>
+    <t>Even Better Refresh Hydrating and Repairing Makeup</t>
+  </si>
+  <si>
+    <t>Even Better Light Reflecting Primer</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Clinique For Men Maximum Hydrator Activated Water-Gel Concentrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique My Happy Peony Picnic </t>
+  </si>
+  <si>
+    <t>Twice the Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Stay-Matte Universal Blotting Powder</t>
+  </si>
+  <si>
+    <t>Clinique Skincare and Makeup Icons</t>
+  </si>
+  <si>
+    <t>Clinique For Men Face Wash Oily Skin Formula</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Chubby Lash Fattening Mascara</t>
+  </si>
+  <si>
+    <t>Even Better Pore Defying Primer</t>
+  </si>
+  <si>
+    <t>Clinique My Happy Cocoa &amp; Cashmere</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Even Better All-Over Primer + Color Corrector</t>
+  </si>
+  <si>
+    <t>Limited Edition Clinique Pop Lip + Cheek Oil in Black Honey</t>
+  </si>
+  <si>
+    <t>Calyx Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>High Impact Shadow Play Shadow + Definer</t>
+  </si>
+  <si>
+    <t>Chubby Stick Sculpting Contour</t>
+  </si>
+  <si>
+    <t>Makeup Brush Cleanser</t>
+  </si>
+  <si>
+    <t>Just Browsing Brush-On Styling Mousse</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance and Makeup Set</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir Body Smoother</t>
+  </si>
+  <si>
+    <t>Clinique Happy Body Wash</t>
+  </si>
+  <si>
+    <t>All About Shadow Duo</t>
+  </si>
+  <si>
+    <t>Powder Brush</t>
+  </si>
+  <si>
     <t>Clinique For Men Face Wash</t>
   </si>
   <si>
-    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
-  </si>
-  <si>
-    <t>Clinique For Men Oil Control Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique For Men Maximum Hydrator Activated Water-Gel Concentrate</t>
-  </si>
-  <si>
     <t>Clinique for Men Cream Shave</t>
   </si>
   <si>
-    <t>Daily Age Repair Set: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique For Men Super Energizer Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Clinique For Men Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Paradise Limited Edition Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Twice the Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>Clinique For Men Starter Kit – Daily Intense Hydration</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance and Makeup Set</t>
-  </si>
-  <si>
-    <t>Clinique For Men Starter Kit – Daily Oil Control</t>
-  </si>
-  <si>
-    <t>Clinique For Men Starter Kit – Daily Age Repair</t>
-  </si>
-  <si>
-    <t>Clinique My Happy&lt;br&gt;Lily of the Beach</t>
-  </si>
-  <si>
-    <t>Aromatics in Black</t>
-  </si>
-  <si>
-    <t>Clinique For Men Face Scrub</t>
-  </si>
-  <si>
-    <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique For Men Face Wash Oily Skin Formula</t>
-  </si>
-  <si>
-    <t>Clinique My Happy&lt;br&gt;Indigo Mist</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Bloom Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique My Happy Cocoa &amp; Cashmere</t>
-  </si>
-  <si>
-    <t>Clinique My Happy&lt;br&gt;Cookies &amp; Kisses</t>
+    <t>Quickliner For Brows Eyebrow Pencil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Smart Clinical Repair AM/PM Retinoid Balm </t>
+  </si>
+  <si>
+    <t>Eye Shadow Brush</t>
+  </si>
+  <si>
+    <t>Eye Shader Brush</t>
+  </si>
+  <si>
+    <t>Blush Brush</t>
+  </si>
+  <si>
+    <t>Brow Shaper</t>
+  </si>
+  <si>
+    <t>Lash Doubling Mascara</t>
+  </si>
+  <si>
+    <t>Bronzer/Blender Brush</t>
+  </si>
+  <si>
+    <t>Eye Definer Brush</t>
+  </si>
+  <si>
+    <t>Instant Lift For Brows</t>
   </si>
   <si>
     <t>Clinique Happy Heart Eau de Parfum Spray</t>
   </si>
   <si>
-    <t>Clinique Happy&amp;trade; Body Cream</t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique My Happy Peony Picnic </t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Wash</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
-  </si>
-  <si>
-    <t>Clinique My Happy&lt;br&gt;Baby Bouquet</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
+    <t>Clinique Pop Longwear Lipstick</t>
+  </si>
+  <si>
+    <t>Concealer Brush</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair Lifting Face + Neck Cream</t>
+  </si>
+  <si>
+    <t>Facial Soap</t>
+  </si>
+  <si>
+    <t>All About Clean All-in-One Cleansing Micellar Milk + Makeup Remover</t>
+  </si>
+  <si>
+    <t>Turnaround Overnight Revitalizing Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique Smart Night Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
+  </si>
+  <si>
+    <t>Extra Gentle Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Deep Comfort Hand and Cuticle Cream</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
+  </si>
+  <si>
+    <t>Moisture Surge Hydro-Infused Lotion</t>
+  </si>
+  <si>
+    <t>Moisture Surge Lip Hydro-Plump Treatment</t>
+  </si>
+  <si>
+    <t>Foundation Buff Brush</t>
+  </si>
+  <si>
+    <t>Foundation Brush</t>
+  </si>
+  <si>
+    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Moisture Surge Face Spray Thirsty Skin Relief</t>
+  </si>
+  <si>
+    <t>Clinique Smart Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
+  </si>
+  <si>
+    <t>Repairwear Uplifting Firming Cream Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Superdefense City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Body Cream</t>
   </si>
   <si>
     <t>SPF 50 Mineral Sunscreen Fluid For Face</t>
   </si>
   <si>
-    <t>Quickliner For Brows Eyebrow Pencil</t>
-  </si>
-  <si>
-    <t>Summer Day Skincare and Makeup Essentials</t>
-  </si>
-  <si>
-    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Brow Shaper</t>
-  </si>
-  <si>
-    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir Body Smoother</t>
-  </si>
-  <si>
-    <t>Aromatics in White</t>
-  </si>
-  <si>
-    <t>Limited Edition Clinique Pop Lip + Cheek Oil in Black Honey</t>
-  </si>
-  <si>
-    <t>All About Shadow&amp;trade; Quad</t>
-  </si>
-  <si>
-    <t>Acne Solutions Liquid Makeup</t>
-  </si>
-  <si>
-    <t>Sunny Day Skincare and Makeup Staples</t>
-  </si>
-  <si>
-    <t>Deep Comfort&amp;trade; Hand and Cuticle Cream</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>High Impact Gel Tech Eyeliner</t>
-  </si>
-  <si>
     <t>Skin School Supplies: Glowing Skin Essentials</t>
   </si>
   <si>
+    <t>Clinique Smart Clinical Repair Overnight Recovery Cream + Mask</t>
+  </si>
+  <si>
+    <t>Redness Solutions Redness Regimen</t>
+  </si>
+  <si>
+    <t>Rinse-Off Eye Makeup Solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
+  </si>
+  <si>
+    <t>Even Better Brightening Essence Lotion</t>
+  </si>
+  <si>
     <t>Skin School Supplies: Cleanser Refresher Course (Type 3 &amp; 4)</t>
   </si>
   <si>
-    <t>Moisture Surge&amp;trade; Face Spray Thirsty Skin Relief</t>
-  </si>
-  <si>
-    <t>Facial Soap</t>
-  </si>
-  <si>
-    <t>Clinique Pop Longwear Lipstick</t>
-  </si>
-  <si>
-    <t>NEW High Impact Shadow Play Shadow + Definer</t>
-  </si>
-  <si>
-    <t>Even Better All-Over Primer and Color Corrector</t>
-  </si>
-  <si>
-    <t>Soft-Pressed Powder Blusher</t>
-  </si>
-  <si>
-    <t>Even Better Pore Defying Primer</t>
-  </si>
-  <si>
-    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Cheek Colour Balm</t>
-  </si>
-  <si>
-    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
-  </si>
-  <si>
-    <t>Touch Base For Eyes&amp;trade;</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Sculpting Highlight</t>
-  </si>
-  <si>
-    <t>Superpowder Double Face Makeup</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Sculpting Contour</t>
-  </si>
-  <si>
-    <t>All About Clean All-in-One Cleansing Micellar Milk + Makeup Remover</t>
-  </si>
-  <si>
-    <t>Clinique Smart Night Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
-  </si>
-  <si>
-    <t>Chubby Lash&amp;trade; Fattening Mascara</t>
-  </si>
-  <si>
-    <t>Repairwear&amp;trade; Uplifting Firming Cream Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>Turnaround Overnight Revitalizing Moisturizer</t>
-  </si>
-  <si>
-    <t>All About Shadow Duo</t>
-  </si>
-  <si>
-    <t>Stay-Matte Universal Blotting Powder</t>
-  </si>
-  <si>
-    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
-  </si>
-  <si>
-    <t>Rinse-Off Eye Makeup Solvent</t>
-  </si>
-  <si>
-    <t>Stay-Matte Oil-Free Makeup</t>
-  </si>
-  <si>
-    <t>Broad Spectrum SPF 50 Sunscreen Body Cream</t>
-  </si>
-  <si>
-    <t>Good to Glow: All-in-One Face Palette</t>
-  </si>
-  <si>
-    <t>High Impact Custom Black Kajal</t>
-  </si>
-  <si>
-    <t>Just Browsing Brush-On Styling Mousse</t>
-  </si>
-  <si>
-    <t>Foundation Brush</t>
-  </si>
-  <si>
-    <t>Redness Solutions Redness Regimen</t>
-  </si>
-  <si>
-    <t>Eye Definer Brush</t>
-  </si>
-  <si>
-    <t>Powder Brush</t>
-  </si>
-  <si>
-    <t>Eye Shader Brush</t>
-  </si>
-  <si>
-    <t>Bronzer/Blender Brush</t>
-  </si>
-  <si>
-    <t>Quickliner&amp;trade; For Lips</t>
-  </si>
-  <si>
-    <t>Superbalanced Makeup</t>
-  </si>
-  <si>
-    <t>Even Better Light Reflecting Primer</t>
-  </si>
-  <si>
-    <t>Blushing Blush&amp;trade; Powder Blush</t>
-  </si>
-  <si>
-    <t>Even Better Refresh Hydrating and Repairing Makeup</t>
-  </si>
-  <si>
-    <t>Extra Gentle Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
-  </si>
-  <si>
-    <t>Easy Eye Duo Set</t>
-  </si>
-  <si>
-    <t>Bottom Lash Mascara&amp;trade;</t>
-  </si>
-  <si>
-    <t>Instant Lift For Brows</t>
-  </si>
-  <si>
-    <t>Blush Brush</t>
-  </si>
-  <si>
-    <t>Lash Doubling Mascara</t>
-  </si>
-  <si>
-    <t>Concealer Brush</t>
-  </si>
-  <si>
-    <t>Clinique Smart Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
-  </si>
-  <si>
-    <t>Moisture Surge Hydro-Infused Lotion</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>Superdefense City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
-  </si>
-  <si>
-    <t>Even Better Brightening Essence Lotion</t>
-  </si>
-  <si>
-    <t>Moisture Surge Lip Hydro-Plump Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
-  </si>
-  <si>
-    <t>Clinique Skincare and Makeup Icons</t>
-  </si>
-  <si>
-    <t>Eye Shadow Brush</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair Lifting Face + Neck Cream</t>
-  </si>
-  <si>
-    <t>Foundation Buff Brush</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Moisturizing Lip Colour Balm</t>
-  </si>
-  <si>
-    <t>Cream Shaper&amp;trade; For Eyes</t>
-  </si>
-  <si>
-    <t>Makeup Brush Cleanser</t>
+    <t>Clinique For Men Anti-Age Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique For Menâ„¢ Oil-Free Moisturizer</t>
+  </si>
+  <si>
+    <t>Acne Solutions Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>High Impact Mascara</t>
+  </si>
+  <si>
+    <t>Clinique For Men Super Energizer Anti-Fatigue Depuffing Eye Gel</t>
+  </si>
+  <si>
+    <t>Refresh in 5 Skincare and Makeup Set</t>
+  </si>
+  <si>
+    <t>All About Clean 2-in-1 Cleansing + Exfoliating Jelly</t>
+  </si>
+  <si>
+    <t>Clinique Pop Liquid Matte Lip Colour + Primer Lipstick</t>
+  </si>
+  <si>
+    <t>Quickliner For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>All About Shadow 8-Pan Palette</t>
+  </si>
+  <si>
+    <t>Exfoliating Tonic</t>
   </si>
   <si>
     <t>Charcoal Face Wash</t>
   </si>
   <si>
+    <t>Cheek Pop Blush</t>
+  </si>
+  <si>
+    <t>Clinique For Menâ„¢ Anti-Age Moisturizer</t>
+  </si>
+  <si>
     <t>Moisturizing Lotion</t>
   </si>
   <si>
-    <t>Clinique For Men Anti-Age Eye Cream</t>
-  </si>
-  <si>
-    <t>All About Clean 2-in-1 Cleansing + Exfoliating Jelly</t>
-  </si>
-  <si>
-    <t>Clinique For Menâ„¢ Oil-Free Moisturizer</t>
+    <t>Dramatically Different Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>Even Betterâ„¢ Makeup Broad Spectrum SPF 15 Foundation</t>
+  </si>
+  <si>
+    <t>True Bronze Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>Acne Solutionsâ„¢ Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Stay-Matte Sheer Pressed Powder</t>
+  </si>
+  <si>
+    <t>Moisture Surgeâ„¢ Overnight Face Mask</t>
+  </si>
+  <si>
+    <t>High Impactâ„¢ Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Almost Lipstick</t>
+  </si>
+  <si>
+    <t>Even Better Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Superdefense City Block Face Sunscreen SPF 50</t>
   </si>
   <si>
     <t>Clinique For Menâ„¢ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
   </si>
   <si>
-    <t>Clinique For Men Super Energizer Anti-Fatigue Depuffing Eye Gel</t>
-  </si>
-  <si>
-    <t>Clinique For Menâ„¢ Anti-Age Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique Pop Liquid Matte Lip Colour + Primer Lipstick</t>
-  </si>
-  <si>
     <t>Take The Day Offâ„¢ Facial Cleansing Mousse</t>
   </si>
   <si>
+    <t>Face Sunscreen Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>High Impact Extreme Volume Mascara</t>
+  </si>
+  <si>
+    <t>Even Better Eyes Dark Circle Corrector</t>
+  </si>
+  <si>
+    <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
+  </si>
+  <si>
+    <t>Acne Solutionsâ„¢ Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser</t>
+  </si>
+  <si>
+    <t>Post-Shave Soother</t>
+  </si>
+  <si>
+    <t>All About Shadow Single Eye Shadow</t>
+  </si>
+  <si>
+    <t>Mini Smart Clinical Repairâ„¢ Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Aloe Shave Gel</t>
+  </si>
+  <si>
+    <t>Lash Building Primer</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder</t>
+  </si>
+  <si>
+    <t>Face Scrub</t>
+  </si>
+  <si>
     <t>Take The Day Off Cleansing Balm Makeup Remover</t>
   </si>
   <si>
-    <t>Almost Lipstick</t>
-  </si>
-  <si>
-    <t>High Impact Extreme Volume Mascara</t>
-  </si>
-  <si>
-    <t>Face Sunscreen Broad Spectrum SPF 50</t>
+    <t>Even Better Clinicalâ„¢ Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinicalâ„¢ MD Multi-Dimensional Age Transformer Duo Resculpt + Revolumize</t>
+  </si>
+  <si>
+    <t>Acne Solutionsâ„¢ Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Deep Comfort Body Butter</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 21 Moisturizer</t>
+  </si>
+  <si>
+    <t>Moisture Surge Hydrating Supercharged Concentrate</t>
+  </si>
+  <si>
+    <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
+  </si>
+  <si>
+    <t>Exfoliating Face Scrub</t>
+  </si>
+  <si>
+    <t>Moisture Megastars Hydrating Skincare Set</t>
+  </si>
+  <si>
+    <t>Mini Moisture Surgeâ„¢ Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
   </si>
   <si>
     <t>Mineral Face Sunscreen Broad Spectrum SPF 50</t>
   </si>
   <si>
-    <t>Quickliner For Eyes Eyeliner</t>
-  </si>
-  <si>
-    <t>Moisture Megastars Hydrating Skincare Set</t>
-  </si>
-  <si>
-    <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
-  </si>
-  <si>
-    <t>Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Post-Shave Soother</t>
-  </si>
-  <si>
-    <t>Dramatically Different Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>All About Shadow 8-Pan Palette</t>
-  </si>
-  <si>
-    <t>Acne Solutionsâ„¢ Cleansing Gel</t>
-  </si>
-  <si>
-    <t>Deep Comfort Body Butter</t>
-  </si>
-  <si>
-    <t>High Impactâ„¢ Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>Redness Solutions Instant Relief Mineral Pressed Powder</t>
-  </si>
-  <si>
-    <t>Face Scrub</t>
-  </si>
-  <si>
-    <t>Even Better Eyes Dark Circle Corrector</t>
-  </si>
-  <si>
-    <t>True Bronze Pressed Powder Bronzer</t>
-  </si>
-  <si>
-    <t>Even Better Brightening Moisturizer SPF 20</t>
-  </si>
-  <si>
-    <t>Acne Solutions Acne + Line Correcting Serum</t>
-  </si>
-  <si>
-    <t>Acne Solutionsâ„¢ Clinical Clearing Gel</t>
-  </si>
-  <si>
-    <t>Moisture Surgeâ„¢ Overnight Face Mask</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting Foundation + Concealer</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinicalâ„¢ MD Multi-Dimensional Age Transformer Duo Resculpt + Revolumize</t>
-  </si>
-  <si>
-    <t>High Impact Waterproof Mascara</t>
-  </si>
-  <si>
-    <t>Even Better Clinicalâ„¢ Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>All About Shadow Single Eye Shadow</t>
-  </si>
-  <si>
-    <t>Stay-Matte Sheer Pressed Powder</t>
-  </si>
-  <si>
-    <t>Even Betterâ„¢ Makeup Broad Spectrum SPF 15 Foundation</t>
-  </si>
-  <si>
     <t>Rinse-Off Foaming Cleanser</t>
   </si>
   <si>
-    <t>Broad Spectrum SPF 21 Moisturizer</t>
-  </si>
-  <si>
-    <t>High Impact Mascara</t>
-  </si>
-  <si>
-    <t>Exfoliating Face Scrub</t>
-  </si>
-  <si>
-    <t>Redness Solutions Soothing Cleanser</t>
-  </si>
-  <si>
-    <t>Cheek Pop Blush</t>
-  </si>
-  <si>
-    <t>Blended Face Powder</t>
-  </si>
-  <si>
-    <t>Acne Solutionsâ„¢ Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Lash Building Primer</t>
-  </si>
-  <si>
-    <t>Mini Moisture Surgeâ„¢ Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Moisture Surge Hydrating Supercharged Concentrate</t>
-  </si>
-  <si>
-    <t>Superdefense City Block Face Sunscreen SPF 50</t>
-  </si>
-  <si>
-    <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
-  </si>
-  <si>
-    <t>Mini Smart Clinical Repairâ„¢ Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Dramatically Different Moisturizing Cream</t>
+    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/oil-control-mattifying-moisturizer-P122683?skuId=1580802</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/high-impact-mascara-P122912?skuId=711267</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/refresh-in-5-skincare-makeup-set-P508631?skuId=2716629</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/pop-liquid-matte-lip-colour-P411531?skuId=1860220</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-tonic-P122761?skuId=50765</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/charcoal-face-wash-P398713?skuId=1734649</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/moisturizing-lotion-P122809?skuId=1580794</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/oil-control-mattifying-moisturizer-P122683?skuId=1580802</t>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=1332246</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-gel-P393501?skuId=1677137</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-overnight-mask-P377577?skuId=1484641</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/almost-lipstick-P122751?skuId=70680</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-superdefense-city-block-spf-50-daily-energy-face-protector-P456991?skuId=2313757</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/pop-liquid-matte-lip-colour-P411531?skuId=1860220</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-50-sunscreen-face-cream-P232327?skuId=1151711</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/post-shave-soother-P122770?skuId=51052</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/aloe-shave-gel-P122682?skuId=1580810</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-instant-relief-mineral-pressed-powder-P277401?skuId=1295765</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/face-scrub-P122665?skuId=50997</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/take-the-day-off-cleansing-balm-P126301?skuId=886267</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/almost-lipstick-P122751?skuId=70680</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-50-sunscreen-face-cream-P232327?skuId=1151711</t>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-smart-clinical-md-multi-dimensional-age-transformer-duo-resculpt-revolumize-P448565?skuId=2240323</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/deep-comfort-body-butter-P122654?skuId=637025</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-hydrating-supercharged-concentrate-P417984?skuId=1898790</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-moisture-megastars-hydrating-skincare-set-P510763?skuId=2766384</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/broad-spectrum-spf-50-mineral-sunscreen-fluid-for-face-P410101?skuId=1809383</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-moisture-megastars-hydrating-skincare-set-P510763?skuId=2766384</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/aloe-shave-gel-P122682?skuId=1580810</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/post-shave-soother-P122770?skuId=51052</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-cleansing-gel-P393501?skuId=1677137</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/deep-comfort-body-butter-P122654?skuId=637025</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-instant-relief-mineral-pressed-powder-P277401?skuId=1295765</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/face-scrub-P122665?skuId=50997</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-P385432?skuId=1592831</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-overnight-mask-P377577?skuId=1484641</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/beyond-perfecting-foundation-concealer-P393325?skuId=2166833</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-smart-clinical-md-multi-dimensional-age-transformer-duo-resculpt-revolumize-P448565?skuId=2240323</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-waterproof-mascara-P377219?skuId=1487180</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=2083871</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/rinse-off-foaming-cleanser-P122762?skuId=47860</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-mascara-P122912?skuId=711267</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blended-face-powder-brush-P122668?skuId=51532</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-hydrating-supercharged-concentrate-P417984?skuId=1898790</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-superdefense-city-block-spf-50-daily-energy-face-protector-P456991?skuId=2313757</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
+    <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126259/gift-center/all-gifts-sets/daily-age-repair-set-cleanse-exfoliate-hydrate?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball?size=.36_oz_%252F_10ml_-_Travel_Size</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray?size=1.7_fl._oz._%252F_50ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white?size=1.7_fl._oz._%252F_50ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control?size=Various_Sizes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18?shade=01_Fair</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet?size=15_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126138/gift-center/all-gifts-sets/happy-for-him-fragrance-set?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses?size=15_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight?shade=Hefty_Highlight</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/5169/makeup/eye-shadows/touch-base-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup?shade=CN_08_Linen</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/6077/makeup/foundations/superpowder-double-face-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black?size=3.4_fl.oz._%252F_100ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach?size=15ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist?size=15_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup?shade=CN_0.75_Custard</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray?size=.34_fl._oz._-_TSA_Friendly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-color-corrector?shade=Peach</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/126252/makeup/lip-glosses/limited-edition-clinique-poptm-lip-cheek-oil-in-black-honey</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray?size=50_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology?shade=Calming_Alabaster</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/high-impact-shadow-playtm-shadow-definer?shade=Champagne_%2B_Caviar</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour?shade=Curvy_Contour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser?size=8.0_fl._oz%252F236_ml</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother?size=6_fl._oz.</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush?size=</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/16422/126259/gift-center/all-gifts-sets/daily-age-repair-set-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
+    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/126186/skincare/serum/clinique-smart-clinical-repairtm-ampm-retinoid-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
+    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover?size=200ml_Skin_Type_1%2C_2</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/34020/skincare/dullness/daily-renewal/turnaroundtm-overnight-revitalizing-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head?size=1-Pack</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/4972/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-body-cream</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1661/40650/sun-protection-self-tanners/sun-protection/spf-50-mineral-sunscreen-fluid-for-face</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1603/126252/makeup/lip-glosses/limited-edition-clinique-poptm-lip-cheek-oil-in-black-honey</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/16422/104218/gift-center/all-gifts-sets/skin-school-supplies-glowing-skin-essentials</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1687/126187/skincare/moisturizers/clinique-smart-clinical-repairtm-overnight-recovery-cream-mask</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen?size=</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/16422/104241/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-3-4</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/new-high-impact-shadow-playtm-shadow-definer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-and-color-corrector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/5169/makeup/eye-shadows/touch-base-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/6077/makeup/foundations/superpowder-double-face-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1680/34020/skincare/dullness/daily-renewal/turnaroundtm-overnight-revitalizing-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/4972/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,22 +1987,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1992,22 +2010,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2015,22 +2033,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2038,22 +2056,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2061,22 +2079,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2084,22 +2102,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2107,22 +2125,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2130,22 +2148,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2153,22 +2171,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2176,22 +2194,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2199,22 +2217,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2222,22 +2240,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2245,22 +2263,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2268,22 +2286,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2291,22 +2309,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2314,22 +2332,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2337,22 +2355,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2360,22 +2378,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2383,22 +2401,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C20">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2406,22 +2424,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2429,22 +2447,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2455,19 +2473,19 @@
         <v>124</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2475,22 +2493,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2498,22 +2516,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2521,22 +2539,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2544,1609 +2562,1609 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C32">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C35">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>359</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>360</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C40">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C42">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>129</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C48">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C49">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E50" t="s">
         <v>301</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C52">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C53">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C55">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C56">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C57">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C58">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59">
-        <v>48</v>
-      </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C60">
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C61">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>375</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C65">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C66">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C67">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C68">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C70">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C72">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C75">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E76" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C77">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C78">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E78" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C79">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E79" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C80">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E80" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>160</v>
       </c>
       <c r="C81">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C82">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C83">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E83" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C84">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E84" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="C85">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C86">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C87">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E87" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C88">
         <v>50</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C90">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E90" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C91">
         <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E91" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C92">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C93">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C94">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C95">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C96">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4154,206 +4172,206 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E97" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C98">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>412</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C99">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E99" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C101">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C102">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C103">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C104">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E104" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C105">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4361,22 +4379,22 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C106">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4384,45 +4402,45 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C107">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E107" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C108">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4430,68 +4448,68 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C109">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C110">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="E110" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C111">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="E111" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4499,22 +4517,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C112">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E112" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4522,22 +4540,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C113">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D113" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E113" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4545,22 +4563,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C114">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E114" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4568,22 +4586,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C115">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E115" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4591,22 +4609,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C116">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E116" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4614,22 +4632,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C117">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D117" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E117" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4637,22 +4655,22 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C118">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E118" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4660,22 +4678,22 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C119">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4683,68 +4701,137 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C120">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C121">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D121" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C122">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E122" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123">
+        <v>66</v>
+      </c>
+      <c r="D123" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" t="s">
+        <v>322</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>294</v>
+      </c>
+      <c r="E124" t="s">
+        <v>320</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" t="s">
+        <v>335</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4991,6 +5078,12 @@
     <hyperlink ref="G121" r:id="rId240"/>
     <hyperlink ref="F122" r:id="rId241"/>
     <hyperlink ref="G122" r:id="rId242"/>
+    <hyperlink ref="F123" r:id="rId243"/>
+    <hyperlink ref="G123" r:id="rId244"/>
+    <hyperlink ref="F124" r:id="rId245"/>
+    <hyperlink ref="G124" r:id="rId246"/>
+    <hyperlink ref="F125" r:id="rId247"/>
+    <hyperlink ref="G125" r:id="rId248"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
